--- a/05ReadLabelSaveinExcel/part3_labels.xlsx
+++ b/05ReadLabelSaveinExcel/part3_labels.xlsx
@@ -14,84 +14,1365 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>信任是无声的语言</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="453">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>“坏”孩子需要更多的爱和宽容</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>班主任德育案例分析</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>百变看学生，千方寻亮点</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>尊重学生以理服人</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>学生的冒犯老师的情</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>给学生足够的时间和空间</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>青春的叛逆期</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>真正的教育力量</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>拨动孩子心灵的琴弦</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>精诚所至，金石为开</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>慢慢绽放，守望关爱</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>让课堂上的每一张笑脸都绽放</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>班主任工作德育案例-小米的故事</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>班主任育人经典案例-被溺爱的张同学</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>班主任育人经典案例-离异家庭的孩子</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>班主任育人经典案例-刘德祝的故事</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>避免"小”矛盾  找回“好”心情</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>步步为营，非你莫属</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>抄作业引起的突发事件</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>德育工作创新案例-调皮的周同学</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>动之以情 晓之以理</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>“浪子”回头金不换——谈后进生转化</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>对不起，我错怪你了</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>爱心传递</t>
+    <t>高中班主任德育案例</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>关爱多动症孩子</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>孩子成功教育从好习惯培养开始</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>后进生是一颗未结果的百合</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>后进生转化点滴</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>后进生转化问题</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>坏孩子也会变成好孩子</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>假如是我的孩子</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>教师需要用心育人</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>爱心能使坚冰融化</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>金黄的2007</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>具体分析，实事求是</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>留守学生转化之我见</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>耐心转化后进生</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>平常心和自信心，成功的关键</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>破茧成蝶</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>让留守儿童在爱中成长</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>如何对待骄傲自大的学生</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>如何进行特殊生教育</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>润物有声——转化后进生的一点做法</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>爱心是开启学生心灵的钥匙</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>师爱的艺术</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>师爱是教育的基础和前提</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>疏导·关爱</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>她，值得关注</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>她的苦恼</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>特别的关爱献给单亲孩子</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>退一步，海阔天空</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>小学班主任案例</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>小学班主任教育案例-问题学生的故事</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>小学德育案例分析</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>把平凡的事做好就是不平凡</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>小学德育教育案例-唐佳龙的故事</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>小学德育教育案例-小学生偷东西的故事</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>小学育人案例</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>学生个人德育案例分析</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>一个留守学困儿童的转化</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>一位高三女生的压力</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>以人为本，付出师爱</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>用爱温暖学生的心</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>爱在心田深处</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>用爱心营造阳光</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>用爱心育人</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>《用爱扬起自信的风帆》育人案例</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>用激情去感染学生心灵</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>用宽容来鼓励学生上进</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>优秀育人案例（新）</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>育人案例-曹云波的故事</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>育人案例</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>育人案例-一名留守儿童的故事</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>班集体里的捣乱分子是个“宝”</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>育人案例—用爱心育人</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>真诚地说一声“对不起”</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>治之于未乱，防患于未然</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>转化后进生的点滴感想</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>尊重是一种超常的力量</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>尊重学生的感情</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>尊重个体差异</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>走近学生心田，塑造学生健康和谐心理</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>走出孤僻，她只需一个契机</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>知己知彼，百战不殆</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>爱心，转化后进生</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>灵动校园 时尚德育</t>
-  </si>
-  <si>
-    <t>背德行为,偷盗行为,</t>
+    <t>没有爱心，便没有教育</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>班主任老师“无为而治”</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>后进生转化为先进生已不是神话</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>爱让心中的阳光更明亮。</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>真心播种，爱心培育</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>让学生沐浴在关爱中</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>爱是教育成功的秘诀</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>记问题学生改造的史话</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>教好书，育好人</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>爱心与赏识促进学生发展</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>抓住机会，金子就会闪光</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>润物细无声——后进生有效激励案例</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>理解和关爱开启心灵之门</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>挖掘“闪光点”坚持正面教育</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>转化“差生”重在心育</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>多给学生一点爱，做学生心目中的砣</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>阳光总在风雨后（一）</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>阳光总在风雨后（二）</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>他的名字很响亮</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>班主任既是良师也是益友</t>
+  </si>
+  <si>
+    <t>言语攻击,身体攻击行为,</t>
+  </si>
+  <si>
+    <t>心理性退缩,</t>
   </si>
   <si>
     <t>男,</t>
   </si>
   <si>
-    <t>小雨是我这届中最顽皮的一个男生，小学三年级时，因为他母亲工作忙，把他长托在一个辅导站里，从此，他又添了一个坏毛病,</t>
+    <t>二年级,</t>
+  </si>
+  <si>
+    <t>生理疾病,</t>
   </si>
   <si>
     <t>一般儿童,</t>
   </si>
   <si>
+    <t>冲突型家庭氛围,</t>
+  </si>
+  <si>
+    <t>同伴接纳被拒绝,</t>
+  </si>
+  <si>
+    <t>无知模仿,缺失教育引导,安全感需求不满足,爱情需求不满足,</t>
+  </si>
+  <si>
+    <t>品德评价法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>违反课堂制度行为,</t>
+  </si>
+  <si>
+    <t>执拗型问题,</t>
+  </si>
+  <si>
+    <t>学习态度问题,学习方法问题,</t>
+  </si>
+  <si>
+    <t>权威型教养方式,</t>
+  </si>
+  <si>
+    <t>离散型家庭氛围,</t>
+  </si>
+  <si>
+    <t>对他人尊重的不足,缺失教育引导,</t>
+  </si>
+  <si>
+    <t>品德评价法,志愿活动法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>学习态度问题,</t>
+  </si>
+  <si>
+    <t>青春期问题,</t>
+  </si>
+  <si>
+    <t>高二（15）,</t>
+  </si>
+  <si>
+    <t>无知模仿,缺失教育引导,爱情需求不满足,</t>
+  </si>
+  <si>
+    <t>说服教育法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>违反校规校级行为,</t>
+  </si>
+  <si>
+    <t>无知模仿,认知需求不平衡,</t>
+  </si>
+  <si>
+    <t>自我教育法,</t>
+  </si>
+  <si>
+    <t>言语攻击,</t>
+  </si>
+  <si>
+    <t>情绪容易冲动,</t>
+  </si>
+  <si>
+    <t>自我教育法,说服教育法,</t>
+  </si>
+  <si>
+    <t>扰乱课堂秩序行为,隐蔽性违纪行为,违反课堂制度行为,</t>
+  </si>
+  <si>
+    <t>学习方法问题,</t>
+  </si>
+  <si>
+    <t>女,</t>
+  </si>
+  <si>
+    <t>对他人尊重的不足,无知模仿,</t>
+  </si>
+  <si>
+    <t>榜样示范法,说服教育法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>行为性退缩,心理性退缩,</t>
+  </si>
+  <si>
+    <t>初中,</t>
+  </si>
+  <si>
+    <t>单亲家庭,</t>
+  </si>
+  <si>
+    <t>忽视型教养方式,</t>
+  </si>
+  <si>
+    <t>家庭经济低收入,</t>
+  </si>
+  <si>
+    <t>安全感需求不满足,</t>
+  </si>
+  <si>
+    <t>情感陶冶法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>扰乱课堂秩序行为,隐蔽性违纪行为,</t>
+  </si>
+  <si>
+    <t>六年级,</t>
+  </si>
+  <si>
+    <t>心理疾病,</t>
+  </si>
+  <si>
+    <t>对他人尊重的不足,缺失教育引导,安全感需求不满足,</t>
+  </si>
+  <si>
+    <t>自我教育法,榜样示范法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>言语攻击,身体攻击行为,间接攻击,</t>
+  </si>
+  <si>
+    <t>扰乱课堂秩序行为,</t>
+  </si>
+  <si>
+    <t>志愿活动法,榜样示范法,</t>
+  </si>
+  <si>
+    <t>三年级,</t>
+  </si>
+  <si>
+    <t>十岁,</t>
+  </si>
+  <si>
+    <t>无知模仿,缺失教育引导,安全感需求不满足,</t>
+  </si>
+  <si>
+    <t>自我教育法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>隐蔽性违纪行为,</t>
+  </si>
+  <si>
+    <t>欺骗行为,</t>
+  </si>
+  <si>
+    <t>学习态度问题,注意力问题,学习方法问题,</t>
+  </si>
+  <si>
+    <t>四年级的,</t>
+  </si>
+  <si>
+    <t>13岁,</t>
+  </si>
+  <si>
+    <t>重组家庭,</t>
+  </si>
+  <si>
+    <t>友情需求不满足,</t>
+  </si>
+  <si>
+    <t>赏识教育法,品德评价法,说服教育法,在家学习法,自我教育法,学业帮扶法,</t>
+  </si>
+  <si>
+    <t>焦虑情绪问题,</t>
+  </si>
+  <si>
+    <t>一年级新生入学第一天，我就认识了这个长得虎头虎脑的，身体很健壮的小男生,</t>
+  </si>
+  <si>
+    <t>溺爱型教养方式,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,</t>
+  </si>
+  <si>
+    <t>实践锻炼法,家庭教育法,</t>
+  </si>
+  <si>
+    <t>扰乱课堂秩序行为,违反课堂制度行为,</t>
+  </si>
+  <si>
+    <t>高一（四）,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,情绪容易冲动,被他人尊重的需求不满足,</t>
+  </si>
+  <si>
+    <t>沉迷行为,</t>
+  </si>
+  <si>
+    <t>高一,</t>
+  </si>
+  <si>
+    <t>无知模仿,缺失教育引导,</t>
+  </si>
+  <si>
+    <t>自我教育法,学业帮扶法,情感陶冶法,说服教育法,</t>
+  </si>
+  <si>
+    <t>抑郁思维问题,</t>
+  </si>
+  <si>
+    <t>八年级,</t>
+  </si>
+  <si>
+    <t>15岁,</t>
+  </si>
+  <si>
+    <t>留守儿童,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,友情需求不满足,</t>
+  </si>
+  <si>
+    <t>自我教育法,学业帮扶法,说服教育法,</t>
+  </si>
+  <si>
+    <t>言语攻击,间接攻击,</t>
+  </si>
+  <si>
+    <t>扰乱课堂秩序行为,违反校规校级行为,隐蔽性违纪行为,违反课堂制度行为,</t>
+  </si>
+  <si>
+    <t>高三,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,成就感需求不满足,</t>
+  </si>
+  <si>
+    <t>品德评价法,自我教育法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>间接攻击,</t>
+  </si>
+  <si>
+    <t>自我教育法,在家学习法,</t>
+  </si>
+  <si>
+    <t>七（5）,</t>
+  </si>
+  <si>
+    <t>无知模仿,</t>
+  </si>
+  <si>
+    <t>赏识教育法,品德评价法,说服教育法,在家学习法,学业帮扶法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>学习态度问题,注意力问题,</t>
+  </si>
+  <si>
+    <t>一年级,</t>
+  </si>
+  <si>
+    <t>品德评价法,说服教育法,</t>
+  </si>
+  <si>
+    <t>身体攻击行为,</t>
+  </si>
+  <si>
+    <t>抑郁情绪问题,</t>
+  </si>
+  <si>
+    <t>四年级,</t>
+  </si>
+  <si>
+    <t>在家学习法,赏识教育法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>扰乱课堂秩序行为,违反校规校级行为,</t>
+  </si>
+  <si>
+    <t>品德评价法,说服教育法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,认知方式过激,</t>
+  </si>
+  <si>
+    <t>自我教育法,说服教育法,在家学习法,</t>
+  </si>
+  <si>
+    <t>身体攻击行为,间接攻击,</t>
+  </si>
+  <si>
+    <t>实践锻炼法,</t>
+  </si>
+  <si>
+    <t>专制型教养方式,</t>
+  </si>
+  <si>
+    <t>家庭成员存在不良行为,</t>
+  </si>
+  <si>
+    <t>自我教育法,说服教育法,实践锻炼法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>五年级,</t>
+  </si>
+  <si>
+    <t>偷盗行为,</t>
+  </si>
+  <si>
+    <t>自私型问题,</t>
+  </si>
+  <si>
+    <t>九岁,</t>
+  </si>
+  <si>
+    <t>他就和爷爷奶奶在一起生活，通过邻居采访，爷爷奶奶思想观念落后，嫌弃他是个女孩子,</t>
+  </si>
+  <si>
+    <t>无知模仿,缺失教育引导,友情需求不满足,</t>
+  </si>
+  <si>
+    <t>赏识教育法,品德评价法,说服教育法,学业帮扶法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>无知模仿,友情需求不满足,</t>
+  </si>
+  <si>
+    <t>说服教育法,</t>
+  </si>
+  <si>
+    <t>品德评价法,自我教育法,学业帮扶法,在家学习法,</t>
+  </si>
+  <si>
+    <t>小学三年,</t>
+  </si>
+  <si>
+    <t>父母心理疾病,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,友情需求不满足,病理性不自控,</t>
+  </si>
+  <si>
+    <t>品德评价法,说服教育法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>17岁,</t>
+  </si>
+  <si>
+    <t>专制型教养方式,溺爱型教养方式,</t>
+  </si>
+  <si>
+    <t>品德评价法,说服教育法,自我教育法,学业帮扶法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>被他人关注和重视的需求不满足,友情需求不满足,</t>
+  </si>
+  <si>
+    <t>品德评价法,说服教育法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>无知模仿,成就感需求不满足,</t>
+  </si>
+  <si>
+    <t>情感陶冶法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,自信心不足,</t>
+  </si>
+  <si>
+    <t>品德评价法,</t>
+  </si>
+  <si>
+    <t>10岁,</t>
+  </si>
+  <si>
+    <t>被他人尊重的需求不满足,</t>
+  </si>
+  <si>
+    <t>品德评价法,自我教育法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>友情需求不满足,病理性不自控,</t>
+  </si>
+  <si>
+    <t>说服教育法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>自我教育法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>在家学习法,说服教育法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>自我教育法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,被他人尊重的需求不满足,</t>
+  </si>
+  <si>
+    <t>品德评价法,自我教育法,</t>
+  </si>
+  <si>
+    <t>高中,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,亲情需求不满足,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,自我教育法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,认知需求不平衡,自信心不足,</t>
+  </si>
+  <si>
+    <t>实践锻炼法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>焦虑行为问题,</t>
+  </si>
+  <si>
+    <t>成员文化程度低,</t>
+  </si>
+  <si>
+    <t>父母生理疾病,</t>
+  </si>
+  <si>
+    <t>认知需求不平衡,缺失教育引导,友情需求不满足,</t>
+  </si>
+  <si>
+    <t>说服教育法,在家学习法,</t>
+  </si>
+  <si>
+    <t>极端问题,</t>
+  </si>
+  <si>
+    <t>高二年级,</t>
+  </si>
+  <si>
+    <t>友情需求不满足,被他人尊重的需求不满足,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,实践锻炼法,说服教育法,</t>
+  </si>
+  <si>
+    <t>行为性退缩,</t>
+  </si>
+  <si>
+    <t>同伴接纳矛盾,</t>
+  </si>
+  <si>
+    <t>品德评价法,学业帮扶法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>高三下学期,</t>
+  </si>
+  <si>
+    <t>同伴接纳被忽视,</t>
+  </si>
+  <si>
+    <t>在家学习法,</t>
+  </si>
+  <si>
+    <t>品德评价法,学业帮扶法,说服教育法,</t>
+  </si>
+  <si>
     <t>被他人关注和重视的需求不满足,缺失教育引导,</t>
   </si>
   <si>
-    <t>情感陶冶法,品德评价法,</t>
-  </si>
-  <si>
-    <t>抑郁情绪问题,</t>
-  </si>
-  <si>
-    <t>学习态度问题,</t>
-  </si>
-  <si>
-    <t>司是我上个毕业班的孩子，在我们学校没有不认识他的老师，姜峰老师认识他，因为他是体育训练队队员，成绩不是很突出，却总是积极参加训练，因为一去训练就不用学习了。,</t>
-  </si>
-  <si>
-    <t>冲突型家庭氛围,</t>
-  </si>
-  <si>
-    <t>家庭成员存在不良行为,</t>
+    <t>品德评价法,家庭教育法,</t>
+  </si>
+  <si>
+    <t>学习能力问题,</t>
+  </si>
+  <si>
+    <t>小学,</t>
+  </si>
+  <si>
+    <t>是五年的,</t>
+  </si>
+  <si>
+    <t>11岁，,</t>
+  </si>
+  <si>
+    <t>品德评价法,情感陶冶法,实践锻炼法,家庭教育法,</t>
   </si>
   <si>
     <t>亲情需求不满足,</t>
   </si>
   <si>
-    <t>与家长沟通法,情感陶冶法,家庭教育法,</t>
-  </si>
-  <si>
-    <t>违反课堂制度行为,</t>
-  </si>
-  <si>
-    <t>青春期问题,</t>
-  </si>
-  <si>
-    <t>高一,</t>
-  </si>
-  <si>
-    <t>同伴接纳被拒绝,</t>
-  </si>
-  <si>
-    <t>流行时尚，是指一种流传广泛、盛行一时的大众心理现象和社会行为。青少年学生思想活跃，对社会新生事物的敏感性和包容性都比较强，最容易接受当今网络信息社会流行时尚文化潮流，在生活方式、学习习惯、娱乐休闲都会受到很大的影响，进而使原有道德观念、价值观念、审美观念都受到强力的冲击。,</t>
-  </si>
-  <si>
-    <t>无知模仿,</t>
-  </si>
-  <si>
-    <t>说服教育法,</t>
+    <t>品德评价法,榜样示范法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>自私型问题,执拗型问题,</t>
+  </si>
+  <si>
+    <t>12岁,</t>
+  </si>
+  <si>
+    <t>品德评价法,说服教育法,家庭教育法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>认知需求不平衡,</t>
+  </si>
+  <si>
+    <t>品德评价法,赏识教育法,家庭教育法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>被他人关注和重视的需求不满足,</t>
+  </si>
+  <si>
+    <t>品德评价法,情感陶冶法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,情感陶冶法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>高二,</t>
+  </si>
+  <si>
+    <t>情感陶冶法,</t>
+  </si>
+  <si>
+    <t>自我教育法,说服教育法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>高三年级,</t>
+  </si>
+  <si>
+    <t>18岁,</t>
+  </si>
+  <si>
+    <t>教师领导方式放任型,</t>
+  </si>
+  <si>
+    <t>认知需求不平衡,友情需求不满足,亲情需求不满足,</t>
+  </si>
+  <si>
+    <t>情感陶冶法,说服教育法,家庭教育法,实践锻炼法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>家庭经济高收入,</t>
+  </si>
+  <si>
+    <t>品德评价法,学业帮扶法,情感陶冶法,说服教育法,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,说服教育法,赏识教育法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>注意力问题,</t>
+  </si>
+  <si>
+    <t>14岁,</t>
+  </si>
+  <si>
+    <t>被他人关注和重视的需求不满足,缺失教育引导,亲情需求不满足,</t>
+  </si>
+  <si>
+    <t>在家学习法,情感陶冶法,实践锻炼法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>榜样示范法,说服教育法,实践锻炼法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>背德行为,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,自我教育法,情感陶冶法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>初一,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,成就感需求不满足,亲情需求不满足,</t>
+  </si>
+  <si>
+    <t>说服教育法,实践锻炼法,情感陶冶法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>成就感需求不满足,</t>
+  </si>
+  <si>
+    <t>情感陶冶法,说服教育法,</t>
+  </si>
+  <si>
+    <t>违反校规校级行为,违反课堂制度行为,</t>
+  </si>
+  <si>
+    <t>病理性不自控,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,榜样示范法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>行为性退缩,言语性退缩,</t>
+  </si>
+  <si>
+    <t>张某某，男，14岁，七年级,</t>
+  </si>
+  <si>
+    <t>张某某，男，14岁，七年级学生,</t>
+  </si>
+  <si>
+    <t>品德评价法,实践锻炼法,家庭教育法,</t>
+  </si>
+  <si>
+    <t>小巫同学，男，16岁,</t>
+  </si>
+  <si>
+    <t>高三6班,</t>
+  </si>
+  <si>
+    <t>品德评价法,自我教育法,榜样示范法,</t>
+  </si>
+  <si>
+    <t>言语性退缩,</t>
+  </si>
+  <si>
+    <t>自信心不足,</t>
+  </si>
+  <si>
+    <t>爱情需求不满足,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>程某，女，15岁，八年级，离异家庭。,</t>
+  </si>
+  <si>
+    <t>程某，女，15岁，八年级学生，离异家庭。,</t>
+  </si>
+  <si>
+    <t>高三11班,</t>
+  </si>
+  <si>
+    <t>品德评价法,情感陶冶法,说服教育法,</t>
+  </si>
+  <si>
+    <t>品德评价法,榜样示范法,</t>
+  </si>
+  <si>
+    <t>品德评价法,家庭教育法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>背德行为,欺骗行为,</t>
+  </si>
+  <si>
+    <t>榜样示范法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,情绪容易冲动,</t>
+  </si>
+  <si>
+    <t>品德评价法,情感陶冶法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>对他人尊重的不足,</t>
+  </si>
+  <si>
+    <t>说服教育法,情感陶冶法,自我教育法,学业帮扶法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>小明，男，13岁,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,实践锻炼法,赏识教育法,</t>
+  </si>
+  <si>
+    <t>品德评价法,情感陶冶法,赏识教育法,说服教育法,</t>
+  </si>
+  <si>
+    <t>赏识教育法,品德评价法,情感陶冶法,说服教育法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>注意力问题,学习方法问题,</t>
+  </si>
+  <si>
+    <t>榜样示范法,说服教育法,情感陶冶法,家庭教育法,学业帮扶法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>焦虑行为问题,焦虑情绪问题,</t>
+  </si>
+  <si>
+    <t>学业帮扶法,说服教育法,情感陶冶法,</t>
+  </si>
+  <si>
+    <t>自我吹嘘型问题,</t>
+  </si>
+  <si>
+    <t>品德评价法,说服教育法,实践锻炼法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>品德评价法,情感陶冶法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>无心念书，认为“读书无用论”、“国家倡导大学生自主创业”，即使自己考上大学，以后还得自己找工作，还不如此刻放下学业，趁早到社会上闯出一条创业之路,</t>
+  </si>
+  <si>
+    <t>缺失教育引导,认知理解偏差,</t>
+  </si>
+  <si>
+    <t>品德评价法,赏识教育法,实践锻炼法,</t>
+  </si>
+  <si>
+    <t>与社区合作法,说服教育法,与家长沟通法,</t>
+  </si>
+  <si>
+    <t>扰乱课堂秩序行为,违反校规校级行为,违反课堂制度行为,</t>
   </si>
 </sst>
 </file>
@@ -423,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AQ4"/>
+  <dimension ref="A2:AQ109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,23 +1717,35 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" t="s">
+        <v>214</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="N2" t="s">
-        <v>8</v>
+        <v>216</v>
+      </c>
+      <c r="P2" t="s">
+        <v>217</v>
       </c>
       <c r="Q2" t="s">
-        <v>9</v>
+        <v>218</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>220</v>
       </c>
       <c r="AP2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="AQ2" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -462,32 +1755,29 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" t="s">
+        <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="Q3" t="s">
-        <v>9</v>
+        <v>218</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>226</v>
       </c>
       <c r="AB3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="AP3" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="AQ3" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -498,31 +1788,3094 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" t="s">
+        <v>254</v>
+      </c>
+      <c r="P9" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J11" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M11" t="s">
+        <v>215</v>
+      </c>
+      <c r="N11" t="s">
+        <v>261</v>
+      </c>
+      <c r="O11" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="D12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" t="s">
+        <v>267</v>
+      </c>
+      <c r="N12" t="s">
+        <v>268</v>
+      </c>
+      <c r="O12" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="D13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I13" t="s">
+        <v>273</v>
+      </c>
+      <c r="M13" t="s">
+        <v>215</v>
+      </c>
+      <c r="N13" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="B14" t="s">
         <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" t="s">
+        <v>230</v>
+      </c>
+      <c r="N14" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" t="s">
+        <v>281</v>
+      </c>
+      <c r="N15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" t="s">
+        <v>273</v>
+      </c>
+      <c r="M16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N16" t="s">
+        <v>286</v>
+      </c>
+      <c r="O16" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>296</v>
+      </c>
+      <c r="K20" t="s">
+        <v>230</v>
+      </c>
+      <c r="M20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" t="s">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s">
+        <v>215</v>
+      </c>
+      <c r="N21" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" t="s">
+        <v>301</v>
+      </c>
+      <c r="N22" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N23" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>308</v>
+      </c>
+      <c r="I25" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+      <c r="N25" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M26" t="s">
+        <v>215</v>
+      </c>
+      <c r="P26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" t="s">
+        <v>305</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>259</v>
+      </c>
+      <c r="N30" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" t="s">
+        <v>305</v>
+      </c>
+      <c r="J31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" t="s">
+        <v>243</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>322</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" t="s">
+        <v>215</v>
+      </c>
+      <c r="N34" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>329</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" t="s">
+        <v>215</v>
+      </c>
+      <c r="N36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" t="s">
+        <v>243</v>
+      </c>
+      <c r="N37" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>334</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" t="s">
+        <v>230</v>
+      </c>
+      <c r="M38" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>336</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>242</v>
+      </c>
+      <c r="M39" t="s">
+        <v>243</v>
+      </c>
+      <c r="N39" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>312</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" t="s">
+        <v>243</v>
+      </c>
+      <c r="O40" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>343</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="M42" t="s">
+        <v>215</v>
+      </c>
+      <c r="N42" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="s">
+        <v>259</v>
+      </c>
+      <c r="H43" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" t="s">
+        <v>215</v>
+      </c>
+      <c r="N43" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" t="s">
+        <v>305</v>
+      </c>
+      <c r="K44" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" t="s">
+        <v>215</v>
+      </c>
+      <c r="N44" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G45" t="s">
+        <v>214</v>
+      </c>
+      <c r="K45" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>348</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="M46" t="s">
+        <v>243</v>
+      </c>
+      <c r="N46" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" t="s">
+        <v>259</v>
+      </c>
+      <c r="I47" t="s">
+        <v>273</v>
+      </c>
+      <c r="M47" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I48" t="s">
+        <v>273</v>
+      </c>
+      <c r="M48" t="s">
+        <v>215</v>
+      </c>
+      <c r="N48" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" t="s">
+        <v>355</v>
+      </c>
+      <c r="K49" t="s">
+        <v>242</v>
+      </c>
+      <c r="M49" t="s">
+        <v>243</v>
+      </c>
+      <c r="N49" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>358</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" t="s">
+        <v>246</v>
+      </c>
+      <c r="K50" t="s">
+        <v>225</v>
+      </c>
+      <c r="L50" t="s">
+        <v>360</v>
+      </c>
+      <c r="M50" t="s">
+        <v>243</v>
+      </c>
+      <c r="N50" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" t="s">
+        <v>364</v>
+      </c>
+      <c r="K51" t="s">
+        <v>301</v>
+      </c>
+      <c r="M51" t="s">
+        <v>215</v>
+      </c>
+      <c r="N51" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" t="s">
+        <v>273</v>
+      </c>
+      <c r="M52" t="s">
+        <v>243</v>
+      </c>
+      <c r="N52" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" t="s">
+        <v>230</v>
+      </c>
+      <c r="M53" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" t="s">
+        <v>246</v>
+      </c>
+      <c r="K55" t="s">
+        <v>267</v>
+      </c>
+      <c r="M55" t="s">
+        <v>243</v>
+      </c>
+      <c r="N55" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" t="s">
+        <v>373</v>
+      </c>
+      <c r="M56" t="s">
+        <v>215</v>
+      </c>
+      <c r="N56" t="s">
+        <v>374</v>
+      </c>
+      <c r="P56" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="K57" t="s">
+        <v>267</v>
+      </c>
+      <c r="M57" t="s">
+        <v>243</v>
+      </c>
+      <c r="N57" t="s">
+        <v>375</v>
+      </c>
+      <c r="O57" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" t="s">
+        <v>318</v>
+      </c>
+      <c r="M58" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>318</v>
+      </c>
+      <c r="I59" t="s">
+        <v>273</v>
+      </c>
+      <c r="J59" t="s">
+        <v>380</v>
+      </c>
+      <c r="K59" t="s">
+        <v>230</v>
+      </c>
+      <c r="M59" t="s">
+        <v>215</v>
+      </c>
+      <c r="N59" t="s">
+        <v>254</v>
+      </c>
+      <c r="O59" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="K60" t="s">
+        <v>267</v>
+      </c>
+      <c r="M60" t="s">
+        <v>215</v>
+      </c>
+      <c r="N60" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" t="s">
+        <v>259</v>
+      </c>
+      <c r="K61" t="s">
+        <v>230</v>
+      </c>
+      <c r="M61" t="s">
+        <v>215</v>
+      </c>
+      <c r="N61" t="s">
+        <v>306</v>
+      </c>
+      <c r="O61" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" t="s">
+        <v>223</v>
+      </c>
+      <c r="G62" t="s">
+        <v>246</v>
+      </c>
+      <c r="K62" t="s">
+        <v>230</v>
+      </c>
+      <c r="M62" t="s">
+        <v>243</v>
+      </c>
+      <c r="N62" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" t="s">
+        <v>273</v>
+      </c>
+      <c r="K63" t="s">
+        <v>242</v>
+      </c>
+      <c r="M63" t="s">
+        <v>243</v>
+      </c>
+      <c r="N63" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>296</v>
+      </c>
+      <c r="M64" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" t="s">
+        <v>246</v>
+      </c>
+      <c r="K65" t="s">
+        <v>230</v>
+      </c>
+      <c r="M65" t="s">
+        <v>215</v>
+      </c>
+      <c r="N65" t="s">
+        <v>391</v>
+      </c>
+      <c r="O65" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43">
+      <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" t="s">
+        <v>235</v>
+      </c>
+      <c r="K66" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43">
+      <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" t="s">
+        <v>235</v>
+      </c>
+      <c r="M67" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" t="s">
+        <v>259</v>
+      </c>
+      <c r="K68" t="s">
+        <v>399</v>
+      </c>
+      <c r="M68" t="s">
+        <v>215</v>
+      </c>
+      <c r="O68" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="J69" t="s">
+        <v>319</v>
+      </c>
+      <c r="K69" t="s">
+        <v>301</v>
+      </c>
+      <c r="M69" t="s">
+        <v>243</v>
+      </c>
+      <c r="N69" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" t="s">
+        <v>404</v>
+      </c>
+      <c r="M70" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>291</v>
+      </c>
+      <c r="K71" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" t="s">
+        <v>235</v>
+      </c>
+      <c r="K72" t="s">
+        <v>225</v>
+      </c>
+      <c r="L72" t="s">
+        <v>231</v>
+      </c>
+      <c r="M72" t="s">
+        <v>243</v>
+      </c>
+      <c r="N72" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" t="s">
+        <v>259</v>
+      </c>
+      <c r="M73" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>409</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43">
+      <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" t="s">
+        <v>411</v>
+      </c>
+      <c r="G74" t="s">
+        <v>364</v>
+      </c>
+      <c r="L74" t="s">
+        <v>360</v>
+      </c>
+      <c r="M74" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43">
+      <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="J76" t="s">
+        <v>319</v>
+      </c>
+      <c r="K76" t="s">
+        <v>301</v>
+      </c>
+      <c r="M76" t="s">
+        <v>215</v>
+      </c>
+      <c r="N76" t="s">
+        <v>415</v>
+      </c>
+      <c r="O76" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="J77" t="s">
+        <v>319</v>
+      </c>
+      <c r="L77" t="s">
+        <v>360</v>
+      </c>
+      <c r="M77" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="K78" t="s">
+        <v>399</v>
+      </c>
+      <c r="M78" t="s">
+        <v>215</v>
+      </c>
+      <c r="O78" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" t="s">
+        <v>259</v>
+      </c>
+      <c r="N79" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>223</v>
+      </c>
+      <c r="F80" t="s">
+        <v>281</v>
+      </c>
+      <c r="M80" t="s">
+        <v>215</v>
+      </c>
+      <c r="N80" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" t="s">
+        <v>259</v>
+      </c>
+      <c r="K81" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" t="s">
+        <v>421</v>
+      </c>
+      <c r="K82" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="L83" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>423</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" t="s">
+        <v>235</v>
+      </c>
+      <c r="K84" t="s">
+        <v>301</v>
+      </c>
+      <c r="M84" t="s">
+        <v>215</v>
+      </c>
+      <c r="N84" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" t="s">
+        <v>421</v>
+      </c>
+      <c r="M85" t="s">
+        <v>243</v>
+      </c>
+      <c r="N85" t="s">
+        <v>425</v>
+      </c>
+      <c r="O85" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" t="s">
+        <v>364</v>
+      </c>
+      <c r="M86" t="s">
+        <v>243</v>
+      </c>
+      <c r="N86" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>259</v>
+      </c>
+      <c r="K87" t="s">
+        <v>230</v>
+      </c>
+      <c r="M87" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:43">
+      <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>259</v>
+      </c>
+      <c r="K88" t="s">
+        <v>230</v>
+      </c>
+      <c r="M88" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91" t="s">
+        <v>431</v>
+      </c>
+      <c r="M91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43">
+      <c r="A92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
+        <v>304</v>
+      </c>
+      <c r="D92" t="s">
+        <v>259</v>
+      </c>
+      <c r="H92" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43">
+      <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="J93" t="s">
+        <v>319</v>
+      </c>
+      <c r="K93" t="s">
+        <v>230</v>
+      </c>
+      <c r="M93" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP93" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ93" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:43">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" t="s">
+        <v>304</v>
+      </c>
+      <c r="E94" t="s">
+        <v>404</v>
+      </c>
+      <c r="I94" t="s">
+        <v>273</v>
+      </c>
+      <c r="M94" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>433</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43">
+      <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" t="s">
+        <v>259</v>
+      </c>
+      <c r="M95" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" t="s">
+        <v>259</v>
+      </c>
+      <c r="M96" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:43">
+      <c r="A97" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" t="s">
+        <v>308</v>
+      </c>
+      <c r="I97" t="s">
+        <v>273</v>
+      </c>
+      <c r="K97" t="s">
+        <v>230</v>
+      </c>
+      <c r="M97" t="s">
+        <v>215</v>
+      </c>
+      <c r="N97" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP97" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ97" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:43">
+      <c r="A98" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>312</v>
+      </c>
+      <c r="D98" t="s">
+        <v>259</v>
+      </c>
+      <c r="J98" t="s">
+        <v>319</v>
+      </c>
+      <c r="K98" t="s">
+        <v>230</v>
+      </c>
+      <c r="M98" t="s">
+        <v>215</v>
+      </c>
+      <c r="O98" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:43">
+      <c r="A99" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="G99" t="s">
+        <v>421</v>
+      </c>
+      <c r="K99" t="s">
+        <v>225</v>
+      </c>
+      <c r="M99" t="s">
+        <v>243</v>
+      </c>
+      <c r="N99" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ99" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:43">
+      <c r="A100" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="K100" t="s">
+        <v>242</v>
+      </c>
+      <c r="M100" t="s">
+        <v>215</v>
+      </c>
+      <c r="N100" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:43">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" t="s">
+        <v>292</v>
+      </c>
+      <c r="K101" t="s">
+        <v>441</v>
+      </c>
+      <c r="N101" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP101" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ101" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43">
+      <c r="A102" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>304</v>
+      </c>
+      <c r="G102" t="s">
+        <v>421</v>
+      </c>
+      <c r="I102" t="s">
+        <v>443</v>
+      </c>
+      <c r="J102" t="s">
+        <v>319</v>
+      </c>
+      <c r="K102" t="s">
+        <v>242</v>
+      </c>
+      <c r="M102" t="s">
+        <v>215</v>
+      </c>
+      <c r="N102" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ102" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="1:43">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" t="s">
+        <v>296</v>
+      </c>
+      <c r="D103" t="s">
+        <v>278</v>
+      </c>
+      <c r="J103" t="s">
+        <v>445</v>
+      </c>
+      <c r="M103" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ103" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:43">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" t="s">
+        <v>235</v>
+      </c>
+      <c r="K104" t="s">
+        <v>230</v>
+      </c>
+      <c r="M104" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ104" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>204</v>
+      </c>
+      <c r="G105" t="s">
+        <v>421</v>
+      </c>
+      <c r="K105" t="s">
+        <v>230</v>
+      </c>
+      <c r="M105" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>448</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>449</v>
+      </c>
+      <c r="AQ105" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="106" spans="1:43">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" t="s">
+        <v>235</v>
+      </c>
+      <c r="M106" t="s">
+        <v>215</v>
+      </c>
+      <c r="N106" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43">
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" t="s">
+        <v>291</v>
+      </c>
+      <c r="D107" t="s">
+        <v>308</v>
+      </c>
+      <c r="J107" t="s">
+        <v>319</v>
+      </c>
+      <c r="M107" t="s">
+        <v>215</v>
+      </c>
+      <c r="N107" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ107" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:43">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" t="s">
+        <v>452</v>
+      </c>
+      <c r="M108" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ108" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:43">
+      <c r="A109" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" t="s">
+        <v>278</v>
+      </c>
+      <c r="F109" t="s">
+        <v>281</v>
+      </c>
+      <c r="L109" t="s">
+        <v>231</v>
+      </c>
+      <c r="M109" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/05ReadLabelSaveinExcel/part3_labels.xlsx
+++ b/05ReadLabelSaveinExcel/part3_labels.xlsx
@@ -49,13 +49,19 @@
     <t>亲情需求不满足,</t>
   </si>
   <si>
-    <t>说服教育法,情感陶冶法,</t>
+    <t>说服教育法-我动之以情，晓之以理，对他进行了耐心的教育，教育他作为一个男子汉应有一份责任和担当，使他从根本上认识到了自己的错误。
+,情感陶冶法-对于刘永顺这样特殊的后进生我放下架子亲近他，敞开心扉，以关爱之心来触动他的心弦。“动之于情，晓之于理”，用师爱去温暖他，用情去感化他，用理去说服他，从而促使他主动地认识并改正错误。
+,情感陶冶法-我采取别人嫌弃我喜爱，别人忽视我重视，别人冷漠我关注，别人薄待我厚待的方法对他进行悉心的教育，使他从思想、行动上彻底改变。
+,</t>
   </si>
   <si>
     <t>留守儿童,</t>
   </si>
   <si>
-    <t>实践锻炼法,与家长沟通法,情感陶冶法,</t>
+    <t>实践锻炼法-我还发现他脑子灵活，意志坚强，爱好体育运动，便让他当班体育委员，鼓励他参加学校的运动队。
+,与家长沟通法-对于陈成威这类喜欢惹事生非的后进生，作为班主任，我平时只能多与家长沟通，这样才能全面地了解学生，挖掘学生的特长和优点。
+,情感陶冶法-我有针对性地跟他谈人生、谈理想，在学习和生活上亲近他、关心他，并经常表扬和提出期望。
+,</t>
   </si>
 </sst>
 </file>
